--- a/085_绘制带图片的散点图/样例数据.xlsx
+++ b/085_绘制带图片的散点图/样例数据.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2000106552\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2000106552\Desktop\085_绘制带图片的散点图\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5433FB-FB56-44B2-92AB-223D8253BC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7F25EC-8D9E-43C3-8718-D7D33ADA9EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="1560" windowWidth="15750" windowHeight="13995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>十年期国债收益率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +77,14 @@
   </si>
   <si>
     <t>中国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金牌总数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参赛运动员人数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -83,7 +92,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +102,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -119,9 +137,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -406,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -543,4 +564,147 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F371E6A3-621F-475B-8EAC-AFE4FCB10ADB}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1">
+        <v>405</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>